--- a/7sem/ОБиП (Ледницкий)/Lab2/Лабораторная работа 2.xlsx
+++ b/7sem/ОБиП (Ледницкий)/Lab2/Лабораторная работа 2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4course\7sem\ОБиП (Ледницкий)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4course\7sem\ОБиП (Ледницкий)\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1 исх данные, решение" sheetId="1" r:id="rId1"/>
@@ -1174,6 +1174,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1192,25 +1211,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1493,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1518,21 +1518,21 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
       <c r="L4" t="s">
         <v>82</v>
       </c>
@@ -1545,7 +1545,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="41"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -1593,7 +1593,7 @@
       <c r="E6" s="3">
         <v>8250</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="40">
         <v>8600</v>
       </c>
       <c r="G6" s="3">
@@ -1628,7 +1628,7 @@
       <c r="E7" s="3">
         <v>6300</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="40">
         <v>6000</v>
       </c>
       <c r="G7" s="3">
@@ -1663,7 +1663,7 @@
       <c r="E8" s="3">
         <v>14.9</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="40">
         <v>13.95</v>
       </c>
       <c r="G8" s="3">
@@ -1701,7 +1701,7 @@
       <c r="E9" s="3">
         <v>35</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="40">
         <v>47</v>
       </c>
       <c r="G9" s="3">
@@ -1736,7 +1736,7 @@
       <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="40">
         <v>85</v>
       </c>
       <c r="G10" s="3">
@@ -1771,7 +1771,7 @@
       <c r="E11" s="3">
         <v>-15</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="40">
         <v>-27</v>
       </c>
       <c r="G11" s="3">
@@ -1806,7 +1806,7 @@
       <c r="E12" s="3">
         <v>22</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="40">
         <v>40</v>
       </c>
       <c r="G12" s="3">
@@ -1841,7 +1841,7 @@
       <c r="E13" s="3">
         <v>25</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="40">
         <v>15</v>
       </c>
       <c r="G13" s="3">
@@ -1876,7 +1876,7 @@
       <c r="E14" s="3">
         <v>4</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="40">
         <v>5.5</v>
       </c>
       <c r="G14" s="3">
@@ -1911,7 +1911,7 @@
       <c r="E15" s="3">
         <v>11</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="40">
         <v>19</v>
       </c>
       <c r="G15" s="3">
@@ -1946,7 +1946,7 @@
       <c r="E16" s="3">
         <v>10</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="40">
         <v>5</v>
       </c>
       <c r="G16" s="3">
@@ -1981,7 +1981,7 @@
       <c r="E17" s="3">
         <v>13</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="40">
         <v>17</v>
       </c>
       <c r="G17" s="3">
@@ -2062,7 +2062,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="47" t="s">
+      <c r="L21" s="41" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2200,9 +2200,9 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="48">
-        <f>F15-(F15*F16/100)</f>
-        <v>18.05</v>
+      <c r="F28" s="42">
+        <f>(F15-(F15*F16/100))*1000</f>
+        <v>18050</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -2219,8 +2219,8 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12">
-        <f>F27*100/(F28*(100-F26)*F12)</f>
-        <v>7.2971779346524115E-2</v>
+        <f>F27*1000*100/(F15*1000*(100-F16)*F12)*100</f>
+        <v>6.8257802400738656</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -2240,8 +2240,8 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12">
-        <f>F28/F29</f>
-        <v>247.35589787779762</v>
+        <f>F12*F29/100</f>
+        <v>2.7303120960295462</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -2419,7 +2419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
@@ -2430,39 +2430,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="44"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="E4" s="33">
         <v>6</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="43">
         <v>7</v>
       </c>
       <c r="G4" s="33">
@@ -2549,7 +2549,7 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="44">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="E6" s="30">
         <v>40</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="44">
         <v>25</v>
       </c>
       <c r="G6" s="30">
@@ -2625,7 +2625,7 @@
       <c r="E7" s="30">
         <v>10</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="44">
         <v>20</v>
       </c>
       <c r="G7" s="30">
@@ -2660,7 +2660,7 @@
       <c r="E8" s="30">
         <v>10</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="44">
         <v>10</v>
       </c>
       <c r="G8" s="30">
@@ -2693,7 +2693,7 @@
       <c r="E9" s="30">
         <v>10</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="44">
         <v>15</v>
       </c>
       <c r="G9" s="30">
@@ -2724,7 +2724,7 @@
       <c r="E10" s="30">
         <v>15</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="44">
         <v>5</v>
       </c>
       <c r="G10" s="30">
@@ -2753,7 +2753,7 @@
       <c r="E11" s="30">
         <v>15</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="44">
         <v>20</v>
       </c>
       <c r="G11" s="30">
@@ -2780,7 +2780,7 @@
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="50">
+      <c r="F12" s="44">
         <v>5</v>
       </c>
       <c r="G12" s="30">
@@ -2982,7 +2982,7 @@
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="51">
+      <c r="F21" s="45">
         <f>F19*F11/100</f>
         <v>52</v>
       </c>
@@ -3011,7 +3011,7 @@
       <c r="E22" s="11">
         <v>100</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="45">
         <v>100</v>
       </c>
       <c r="G22" s="11">
@@ -3164,7 +3164,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="51">
+      <c r="F30" s="45">
         <f>SUM(F23:F29)</f>
         <v>100</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
       <c r="E43" s="36"/>
-      <c r="F43" s="52">
+      <c r="F43" s="46">
         <f>SUM(F36:F42)</f>
         <v>52</v>
       </c>
